--- a/12,20/만년필 구매 사이트.xlsx
+++ b/12,20/만년필 구매 사이트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18684" windowHeight="8352"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8376"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,172 +19,226 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+  <x:si>
+    <x:t>manager_password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lee@naver.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 테이블(member)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가옵션 테이블(addoption)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager_email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>message_card</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone_number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 테이블(product)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ehd9567@n.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gift_ wrapping</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 테이블(manager)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적립금</x:t>
+  </x:si>
   <x:si>
     <x:t>쇼핑백</x:t>
   </x:si>
   <x:si>
-    <x:t>bag</x:t>
+    <x:t>김동연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DongYeon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>addoption</x:t>
   </x:si>
   <x:si>
     <x:t>option_num</x:t>
   </x:si>
   <x:si>
-    <x:t>김동연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적립금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>message_card</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addoption</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DongYeon</x:t>
+    <x:t>만년필 구매사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>product_num</x:t>
   </x:si>
   <x:si>
     <x:t>실제_가입자이름</x:t>
   </x:si>
   <x:si>
-    <x:t>만년필 구매사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>product_num</x:t>
-  </x:si>
-  <x:si>
     <x:t>consumer_id</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입 테이블(member)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가옵션 테이블(addoption)</x:t>
+    <x:t>price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옵션번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>member</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품구매자Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인_아이디</x:t>
   </x:si>
   <x:si>
     <x:t>선물포장</x:t>
   </x:si>
   <x:si>
-    <x:t>phone_number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ehd9567@n.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 테이블(product)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옵션번호</x:t>
+    <x:t>join_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
   </x:si>
   <x:si>
     <x:t>선물고마웡</x:t>
   </x:si>
   <x:si>
-    <x:t>join_id</x:t>
+    <x:t>dong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품번호</x:t>
   </x:si>
   <x:si>
     <x:t>notnull</x:t>
   </x:si>
   <x:si>
-    <x:t>price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실제나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인_아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품구매자Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dong</x:t>
-  </x:si>
-  <x:si>
-    <x:t>point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대폰번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>member</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar</x:t>
+    <x:t>carve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boolean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메세지카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각각인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>펠리칸m200</x:t>
   </x:si>
   <x:si>
     <x:t>가입고유숫자</x:t>
   </x:si>
   <x:si>
-    <x:t>상품이름</x:t>
-  </x:si>
-  <x:si>
     <x:t>title</x:t>
   </x:si>
   <x:si>
-    <x:t>펠리칸m200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메세지카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각각인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>carve</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gift_ wrapping</x:t>
-  </x:si>
-  <x:si>
-    <x:t>boolean</x:t>
+    <x:t>관리자password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>010-956-7656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이병헌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자식별번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager_phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>manager_num</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="9">
+  <x:fonts count="10">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -248,8 +302,29 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="6">
+  <x:fills count="7">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -277,6 +352,12 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffffd700"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -361,7 +442,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="25">
+  <x:cellXfs count="27">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -472,9 +553,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -510,71 +588,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -620,6 +633,84 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -646,13 +737,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -958,85 +1075,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:J24"/>
+  <x:dimension ref="A1:J32"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K12" activeCellId="0" sqref="K12:K12"/>
+    <x:sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I28" activeCellId="0" sqref="I28:I28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="15.25" style="1" customWidth="1"/>
-    <x:col min="3" max="6" width="13" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.765625" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="14.57421875" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="12.87890625" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="16.9296875" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="13.765625" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="14.3984375" style="26" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="15.08203125" style="26" bestFit="1" customWidth="1"/>
     <x:col min="8" max="13" width="13" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="20.649999999999999">
-      <x:c r="A1" s="14" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B1" s="15"/>
-      <x:c r="C1" s="15"/>
-      <x:c r="D1" s="15"/>
-      <x:c r="E1" s="15"/>
+      <x:c r="A1" s="17" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B1" s="18"/>
+      <x:c r="C1" s="18"/>
+      <x:c r="D1" s="18"/>
+      <x:c r="E1" s="18"/>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="16" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B3" s="17"/>
-      <x:c r="C3" s="17"/>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="17"/>
-      <x:c r="G3" s="17"/>
+      <x:c r="A3" s="19" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="20"/>
+      <x:c r="C3" s="20"/>
+      <x:c r="D3" s="20"/>
+      <x:c r="E3" s="20"/>
+      <x:c r="F3" s="20"/>
+      <x:c r="G3" s="20"/>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
@@ -1044,13 +1164,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="3">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>19930915</x:v>
@@ -1059,130 +1179,130 @@
         <x:v>106563215</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="9:10">
       <x:c r="I9" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J9" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="9:10">
       <x:c r="I10" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J10" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="18" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B11" s="15"/>
-      <x:c r="C11" s="15"/>
-      <x:c r="D11" s="15"/>
-      <x:c r="E11" s="15"/>
+      <x:c r="A11" s="21" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="18"/>
+      <x:c r="C11" s="18"/>
+      <x:c r="D11" s="18"/>
+      <x:c r="E11" s="18"/>
       <x:c r="F11" s="10"/>
       <x:c r="G11" s="10"/>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F12" s="11"/>
-      <x:c r="G12" s="11"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F12" s="10"/>
+      <x:c r="G12" s="10"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F13" s="11"/>
-      <x:c r="G13" s="11"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F13" s="10"/>
+      <x:c r="G13" s="10"/>
       <x:c r="I13" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="J13" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J13" s="14" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
@@ -1190,193 +1310,322 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>140000</x:v>
       </x:c>
-      <x:c r="D14" s="13">
+      <x:c r="D14" s="12">
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="E14" s="2">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F14" s="11"/>
-      <x:c r="G14" s="12"/>
+      <x:c r="F14" s="10"/>
+      <x:c r="G14" s="11"/>
       <x:c r="I14" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J14" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J14" s="13" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F15" s="11"/>
-      <x:c r="G15" s="11"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F15" s="10"/>
+      <x:c r="G15" s="10"/>
       <x:c r="I15" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J15" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F16" s="11"/>
-      <x:c r="G16" s="11"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F16" s="10"/>
+      <x:c r="G16" s="10"/>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="22" t="s">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B19" s="23"/>
       <x:c r="C19" s="23"/>
       <x:c r="D19" s="23"/>
       <x:c r="E19" s="23"/>
-      <x:c r="I19" s="20" t="s">
+      <x:c r="I19" s="14" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J19" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="14" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B20" s="14" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="14" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D20" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E20" s="14" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I20" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J20" s="16" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B21" s="14" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C21" s="15" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J19" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B20" s="20" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C20" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D20" s="20" t="s">
+      <x:c r="D21" s="15" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E21" s="15" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J21" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="14">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B22" s="14" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C22" s="14" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D22" s="14" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E20" s="20" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I20" s="19" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="J20" s="24" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="19" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B21" s="20" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C21" s="21" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D21" s="21" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E21" s="21" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="I21" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J21" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="20">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B22" s="20" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C22" s="20" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D22" s="20" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E22" s="20" t="s">
-        <x:v>25</x:v>
+      <x:c r="E22" s="14" t="s">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
-      <x:c r="A23" s="20" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B23" s="20" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C23" s="20" t="s">
+      <x:c r="A23" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B23" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C23" s="14" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D23" s="20" t="s">
+      <x:c r="D23" s="14" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="E23" s="20" t="s">
-        <x:v>41</x:v>
+      <x:c r="E23" s="14" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E24" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="22" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B27" s="23"/>
+      <x:c r="C27" s="23"/>
+      <x:c r="D27" s="23"/>
+      <x:c r="E27" s="23"/>
+      <x:c r="I27" s="14" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J27" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="14" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B28" s="14" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C28" s="14" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D28" s="14" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E28" s="14" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F28" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I28" s="13" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J28" s="16" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:10">
+      <x:c r="A29" s="13" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B29" s="14" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C29" s="25" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D29" s="15" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E29" s="15" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F29" s="15" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I29" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J29" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="14">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B30" s="14" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C30" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D30" s="14">
+        <x:v>1234</x:v>
+      </x:c>
+      <x:c r="E30" s="24" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F30" s="24" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B31" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C31" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D31" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E31" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F31" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E32" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s">
+        <x:v>50</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
+  <x:mergeCells count="5">
     <x:mergeCell ref="A1:E1"/>
     <x:mergeCell ref="A3:G3"/>
     <x:mergeCell ref="A11:E11"/>
     <x:mergeCell ref="A19:E19"/>
+    <x:mergeCell ref="A27:E27"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="G6:G6" r:id="rId1"/>
+    <x:hyperlink ref="E30:E30" r:id="rId2"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>